--- a/Documentation/Scrum Artifacts/Product Backlog (Full Project).xlsx
+++ b/Documentation/Scrum Artifacts/Product Backlog (Full Project).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Documents\GitHub\Project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prototroid\Documents\EECS_448\Project3\Documentation\Scrum Artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680694CB-DFF1-4001-865B-F03B989A7657}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420"/>
+    <workbookView xWindow="384" yWindow="456" windowWidth="28044" windowHeight="16416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>TODO List</t>
   </si>
@@ -92,16 +93,19 @@
     <t>Leaderboard UI</t>
   </si>
   <si>
-    <t>Learn bluetooth</t>
-  </si>
-  <si>
-    <t>Use bluetooth to allow multiplayer</t>
+    <t>Game music</t>
+  </si>
+  <si>
+    <t>Additional players to choose from</t>
+  </si>
+  <si>
+    <t>Additional enemies types that can spawn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -180,13 +184,13 @@
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,31 +509,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -539,7 +543,7 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
@@ -550,14 +554,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -570,161 +574,167 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>5</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>6</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>6</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9">
-        <v>4</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="B10" s="8">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="9">
-        <v>4</v>
-      </c>
-      <c r="C11" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="8">
+        <v>4</v>
+      </c>
+      <c r="C11" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>6</v>
       </c>
-      <c r="C13" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C13" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>2</v>
       </c>
-      <c r="C14" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C14" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="9">
-        <v>6</v>
-      </c>
-      <c r="C15" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="9">
-        <v>7</v>
-      </c>
-      <c r="C16" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="8">
+        <v>5</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="4">
-        <f>SUM(B3:B16)</f>
-        <v>55</v>
+        <f>SUM(B3:B17)</f>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
